--- a/EMPIRE_extension/EMPIRE_input/Node.xlsx
+++ b/EMPIRE_extension/EMPIRE_input/Node.xlsx
@@ -10278,7 +10278,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10986,6 +10986,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Energyhub North</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Energyhub Central</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -10998,7 +11018,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:B70"/>
+  <dimension ref="A3:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11686,6 +11706,26 @@
       </c>
       <c r="B70" t="n">
         <v>56.46464350322918</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Energyhub North</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>58.42</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Energyhub Central</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>56.05</v>
       </c>
     </row>
   </sheetData>
@@ -11699,7 +11739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:B70"/>
+  <dimension ref="A3:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12389,6 +12429,26 @@
         <v>3.840226188773612</v>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Energyhub North</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Energyhub Central</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>3.29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
